--- a/Linea Base/SOE/Linea Base 01/Gestion/SOE - CP.xlsx
+++ b/Linea Base/SOE/Linea Base 01/Gestion/SOE - CP.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98698564-739D-4D29-BDF5-E17AF0CD82A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mioWTF5QCRiHh+tnhArHwakkc1SCA=="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -84,9 +93,6 @@
     <t xml:space="preserve">Recurso </t>
   </si>
   <si>
-    <t>% de avance</t>
-  </si>
-  <si>
     <t>Gestion y Negocio:</t>
   </si>
   <si>
@@ -147,9 +153,6 @@
     <t>Elaboracion de la especificacion de requisito 05: Enviar tarea</t>
   </si>
   <si>
-    <t>Elaboracion de la especificacion de requisito 06: Cancelar entrada de tarea</t>
-  </si>
-  <si>
     <t>Elaboracion de la especificacion de requisito 07: Ver calendario</t>
   </si>
   <si>
@@ -234,9 +237,6 @@
     <t>Elaborar las vistas de la creacion del registro de usuario</t>
   </si>
   <si>
-    <t>Elaborar las vistas de la creacion del tarea</t>
-  </si>
-  <si>
     <t>Elaborar la creacion de pomodoro</t>
   </si>
   <si>
@@ -286,75 +286,106 @@
   </si>
   <si>
     <t>Monitoreo de los clientes</t>
+  </si>
+  <si>
+    <t>Elaboracion de la especificacion de requisito 06: Modificar tarea</t>
+  </si>
+  <si>
+    <t>Avance</t>
+  </si>
+  <si>
+    <t>Elaborar las vistas de la pantalla principal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -362,7 +393,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -372,7 +403,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -386,27 +423,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -416,90 +460,91 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -689,1266 +734,1396 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Q1018"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.88"/>
-    <col customWidth="1" min="2" max="2" width="64.0"/>
-    <col customWidth="1" min="3" max="3" width="3.0"/>
-    <col customWidth="1" min="4" max="11" width="2.63"/>
-    <col customWidth="1" min="12" max="15" width="3.5"/>
-    <col customWidth="1" min="16" max="16" width="20.5"/>
-    <col customWidth="1" min="17" max="26" width="9.38"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="11" width="2.625" customWidth="1"/>
+    <col min="12" max="15" width="3.5" customWidth="1"/>
+    <col min="16" max="16" width="20.5" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="20" customWidth="1"/>
+    <col min="18" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:17" ht="18.75">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
-        <v>44132.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="29">
+        <v>44132</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
-        <v>44232.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="30">
+        <v>44232</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+    </row>
+    <row r="6" spans="2:17" ht="14.25">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="10" t="s">
+      <c r="Q8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>0.72719999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="14.25">
+      <c r="B12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="Q22" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="11" t="s">
+      <c r="Q23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="17" t="s">
+      <c r="Q24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="18" t="s">
+      <c r="Q25" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="18" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="16" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="19" t="s">
+      <c r="Q27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="10" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>0.5454</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="18" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q28" s="8"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="17" t="s">
+      <c r="Q29" s="22">
+        <v>0.72719999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="10" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Q29" s="8"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="20" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="18" t="s">
+      <c r="Q31" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="10" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Q31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="19" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="19"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q32" s="8"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="21" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="19"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="22" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35" s="21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="18" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q35" s="8"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="18" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q37" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q36" s="8"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="18" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="19"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q37" s="8"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="22" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="23" t="s">
+      <c r="Q39" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B40" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="10" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q39" s="8"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="23" t="s">
+      <c r="Q40" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B41" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="10" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q40" s="8"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="23" t="s">
+      <c r="Q41" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B42" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="10" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q42" s="19"/>
+    </row>
+    <row r="43" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B43" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q43" s="19"/>
+    </row>
+    <row r="44" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B44" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q41" s="8"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="24" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q44" s="19"/>
+    </row>
+    <row r="45" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B45" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="10" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="19"/>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q46" s="19"/>
+    </row>
+    <row r="47" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B47" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q47" s="19"/>
+    </row>
+    <row r="48" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B48" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="19"/>
+    </row>
+    <row r="49" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B49" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="19"/>
+    </row>
+    <row r="50" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B50" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="19"/>
+    </row>
+    <row r="51" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B51" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="19"/>
+    </row>
+    <row r="52" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B52" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q52" s="19"/>
+    </row>
+    <row r="53" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B53" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="19"/>
+    </row>
+    <row r="54" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B54" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q42" s="8"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q43" s="8"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="8"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="8"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q46" s="8"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q47" s="8"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q48" s="8"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q49" s="8"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q50" s="8"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="23" t="s">
+      <c r="Q54" s="19"/>
+    </row>
+    <row r="55" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B55" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="8"/>
-      <c r="P52" s="10" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P55" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q52" s="8"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P54" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q54" s="8"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P55" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q55" s="8"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="Q55" s="19"/>
+    </row>
+    <row r="56" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="57" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="58" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="59" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="61" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="62" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="63" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="64" spans="2:17" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2905,16 +3080,14 @@
     <row r="1018" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B12:Q12"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="C2:Q2"/>
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="B12:Q12"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>